--- a/Second degree science.xlsx
+++ b/Second degree science.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/xiaoshu_lin_yale_edu/Documents/研究生学习存档（把握最后当学生的机会）/🐟/Data &amp; Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1307" documentId="13_ncr:1_{4C42C822-9C56-40BB-B533-6E040F19C604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A985F5B6-6BD3-40E6-947E-1942B9B401D9}"/>
+  <xr:revisionPtr revIDLastSave="1692" documentId="13_ncr:1_{4C42C822-9C56-40BB-B533-6E040F19C604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B256DA29-1F6E-44C2-83FC-4D472CF0106E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="861" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="151">
   <si>
     <t>A framework for assessing the vulnerability of communities in the Canadian Arctic to risks associated with climate change</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -481,10 +481,58 @@
     <t>framework</t>
   </si>
   <si>
-    <t>Framework/method</t>
+    <t>method</t>
   </si>
   <si>
-    <t>method</t>
+    <t>people</t>
+  </si>
+  <si>
+    <t>Climate change implications for Torres Strait fisheries: assessing vulnerability to inform adaptation</t>
+  </si>
+  <si>
+    <t>Modeling sea-level rise vulnerability of coastal environments using ranked management concerns</t>
+  </si>
+  <si>
+    <t>Assessing vulnerability due to sea-level rise in Maui, Hawai'i using LiDAR remote sensing and GIS</t>
+  </si>
+  <si>
+    <t>Evaluation of the combined risk of sea level rise, land subsidence, and storm surges on the coastal areas of Shanghai, China</t>
+  </si>
+  <si>
+    <t>Incorporating uncertainty of future sea-level rise estimates into vulnerability assessment: A case study in Kahului, Maui</t>
+  </si>
+  <si>
+    <t>Climate change risks to US infrastructure: impacts on roads, bridges, coastal development, and urban drainage</t>
+  </si>
+  <si>
+    <t>Assessment of social vulnerability to climate change in the eastern coast of India</t>
+  </si>
+  <si>
+    <t>Risk management tools for sustainable fisheries management under changing climate: a sea cucumber example</t>
+  </si>
+  <si>
+    <t>Correlates of vulnerability to climate-induced distribution changes in European avifauna: habitat, migration and endemism</t>
+  </si>
+  <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>approach</t>
+  </si>
+  <si>
+    <t>theor</t>
+  </si>
+  <si>
+    <t>Methodology for Assessing the Vulnerability of Marine Fish and Shellfish Species to a Changing Climate</t>
+  </si>
+  <si>
+    <t>A risk-based approach to evaluating Northeast U.S. fish community vulnerability to climate change</t>
+  </si>
+  <si>
+    <t>Note: green ones are academic sample, first and second degree</t>
+  </si>
+  <si>
+    <t>Note: Highlighted in light blue are the ones manually coded due to the lack of keyword references in article titles</t>
   </si>
 </sst>
 </file>
@@ -536,7 +584,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,6 +627,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -595,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -603,7 +669,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -612,8 +677,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1690,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1719,10 +1788,10 @@
       <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
       <c r="H1" t="s">
@@ -1850,7 +1919,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2042,10 +2111,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C15">
@@ -2066,10 +2135,10 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C16">
@@ -2190,7 +2259,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2239,7 +2308,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2313,7 +2382,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>10</v>
       </c>
       <c r="B26" t="s">
@@ -2438,7 +2507,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>15</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2610,7 +2679,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>22</v>
       </c>
       <c r="B38" t="s">
@@ -2635,7 +2704,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>23</v>
       </c>
       <c r="B39" t="s">
@@ -2808,7 +2877,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="14">
+      <c r="A46" s="13">
         <v>30</v>
       </c>
       <c r="B46" t="s">
@@ -2899,11 +2968,11 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="G49">
         <f>2016-'Mapping article title to number'!F49</f>
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2949,15 +3018,15 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="G51">
         <f>2016-'Mapping article title to number'!F51</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="14">
+      <c r="A52" s="13">
         <v>36</v>
       </c>
       <c r="B52" t="s">
@@ -3056,7 +3125,7 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="14">
+      <c r="A56" s="13">
         <v>40</v>
       </c>
       <c r="B56" t="s">
@@ -3147,11 +3216,11 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="G59">
         <f>2016-'Mapping article title to number'!F59</f>
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3308,15 +3377,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9BA798-7123-4C54-A0CD-DC635153BFB7}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="topRight" activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="65.19921875" customWidth="1"/>
+    <col min="1" max="1" width="57.9296875" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" customWidth="1"/>
     <col min="4" max="8" width="6.3984375" customWidth="1"/>
   </cols>
@@ -3349,24 +3419,27 @@
       <c r="I1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>133</v>
+      <c r="P1" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -3393,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="I2" cm="1">
-        <f t="array" ref="I2">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A2)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I2">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A2)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J2">
@@ -3405,13 +3478,12 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <f>H2</f>
         <v>0</v>
-      </c>
-      <c r="N2" cm="1">
-        <f t="array" ref="N2">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A2)))&gt;0, 1, 0)</f>
-        <v>1</v>
       </c>
       <c r="O2" t="s">
         <v>69</v>
@@ -3446,9 +3518,8 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" cm="1">
-        <f t="array" ref="I3">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A3)))&gt;0, 1, 0)</f>
-        <v>1</v>
+      <c r="I3" s="16">
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3459,18 +3530,17 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" cm="1">
-        <f t="array" ref="N3">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A3)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
       </c>
       <c r="O3" t="s">
         <v>70</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3500,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="I4" cm="1">
-        <f t="array" ref="I4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A4)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A4)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J4">
@@ -3512,15 +3582,18 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="M4" cm="1">
+        <f t="array" ref="M4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A4)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>2</v>
-      </c>
-      <c r="N4" cm="1">
-        <f t="array" ref="N4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A4)))&gt;0, 1, 0)</f>
-        <v>0</v>
       </c>
       <c r="O4" t="s">
         <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3550,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="I5" cm="1">
-        <f t="array" ref="I5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A5)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A5)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J5">
@@ -3562,19 +3635,22 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" cm="1">
-        <f t="array" ref="N5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A5)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M5" cm="1">
+        <f t="array" ref="M5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A5)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
       </c>
       <c r="O5" t="s">
         <v>72</v>
       </c>
+      <c r="P5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B6">
@@ -3600,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="I6" cm="1">
-        <f t="array" ref="I6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A6)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A6)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J6">
@@ -3612,16 +3688,16 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M14" si="1">H6</f>
-        <v>0</v>
-      </c>
-      <c r="N6" cm="1">
-        <f t="array" ref="N6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A6)))&gt;0, 1, 0)</f>
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A6)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>H6</f>
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3651,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A7)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I7">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A7)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J7">
@@ -3663,20 +3739,20 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7" cm="1">
-        <f t="array" ref="N7">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A7)))&gt;0, 1, 0)</f>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A7)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>H7</f>
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B8">
@@ -3702,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="I8" cm="1">
-        <f t="array" ref="I8">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A8)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I8">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A8)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J8">
@@ -3717,14 +3793,16 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" cm="1">
-        <f t="array" ref="N8">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A8)))&gt;0, 1, 0)</f>
-        <v>1</v>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -3749,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="I9" cm="1">
-        <f t="array" ref="I9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A9)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A9)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J9">
@@ -3761,16 +3839,16 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A9)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>3</v>
       </c>
-      <c r="N9" cm="1">
-        <f t="array" ref="N9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A9)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B10">
@@ -3796,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="I10" cm="1">
-        <f t="array" ref="I10">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A10)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I10">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A10)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J10">
@@ -3808,16 +3886,16 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" cm="1">
-        <f t="array" ref="N10">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A10)))&gt;0, 1, 0)</f>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A10)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B11">
@@ -3843,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="I11" cm="1">
-        <f t="array" ref="I11">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A11)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I11">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A11)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J11">
@@ -3855,17 +3933,17 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" cm="1">
-        <f t="array" ref="N11">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A11)))&gt;0, 1, 0)</f>
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A11)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>H11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B12">
@@ -3891,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="I12" cm="1">
-        <f t="array" ref="I12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A12)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A12)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J12">
@@ -3903,17 +3981,17 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" cm="1">
-        <f t="array" ref="N12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A12)))&gt;0, 1, 0)</f>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A12)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>H12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B13">
@@ -3939,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="I13" cm="1">
-        <f t="array" ref="I13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A13)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A13)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J13">
@@ -3951,17 +4029,17 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" cm="1">
-        <f t="array" ref="N13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A13)))&gt;0, 1, 0)</f>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A13)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>H13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B14">
@@ -3987,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="I14" cm="1">
-        <f t="array" ref="I14">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A14)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I14">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A14)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J14">
@@ -3999,13 +4077,13 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" cm="1">
-        <f t="array" ref="N14">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A14)))&gt;0, 1, 0)</f>
-        <v>1</v>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A14)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f>H14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -4035,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="I15" cm="1">
-        <f t="array" ref="I15">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A15)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I15">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A15)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J15">
@@ -4047,12 +4125,12 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="M15">
+      <c r="M15" cm="1">
+        <f t="array" ref="M15">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A15)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>2</v>
-      </c>
-      <c r="N15" cm="1">
-        <f t="array" ref="N15">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A15)))&gt;0, 1, 0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4082,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="I16" cm="1">
-        <f t="array" ref="I16">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A16)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I16">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A16)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J16">
@@ -4094,16 +4172,16 @@
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16">
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A16)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>3</v>
       </c>
-      <c r="N16" cm="1">
-        <f t="array" ref="N16">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A16)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B17">
@@ -4129,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="I17" cm="1">
-        <f t="array" ref="I17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A17)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A17)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J17">
@@ -4141,16 +4219,16 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="M17" cm="1">
+        <f t="array" ref="M17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A17)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="N17" cm="1">
-        <f t="array" ref="N17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A17)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18">
@@ -4176,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="I18" cm="1">
-        <f t="array" ref="I18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A18)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A18)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J18">
@@ -4188,12 +4266,12 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18">
+      <c r="M18" cm="1">
+        <f t="array" ref="M18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A18)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>3</v>
-      </c>
-      <c r="N18" cm="1">
-        <f t="array" ref="N18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A18)))&gt;0, 1, 0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4223,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="I19" cm="1">
-        <f t="array" ref="I19">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A19)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I19">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A19)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J19">
@@ -4235,16 +4313,16 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19" cm="1">
-        <f t="array" ref="N19">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A19)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M19" cm="1">
+        <f t="array" ref="M19">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A19)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
@@ -4270,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="I20" cm="1">
-        <f t="array" ref="I20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A20)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A20)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J20">
@@ -4282,16 +4360,16 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="M20" cm="1">
+        <f t="array" ref="M20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A20)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="N20" cm="1">
-        <f t="array" ref="N20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A20)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21">
@@ -4317,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="I21" cm="1">
-        <f t="array" ref="I21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A21)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A21)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J21">
@@ -4329,12 +4407,12 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="M21" cm="1">
+        <f t="array" ref="M21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A21)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>2</v>
-      </c>
-      <c r="N21" cm="1">
-        <f t="array" ref="N21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A21)))&gt;0, 1, 0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4364,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="I22" cm="1">
-        <f t="array" ref="I22">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A22)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I22">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A22)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J22">
@@ -4376,16 +4454,15 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" cm="1">
-        <f t="array" ref="N22">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A22)))&gt;0, 1, 0)</f>
+      <c r="M22" s="14">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23">
@@ -4411,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="I23" cm="1">
-        <f t="array" ref="I23">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A23)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I23">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A23)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J23">
@@ -4423,12 +4500,12 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" cm="1">
+        <f t="array" ref="M23">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A23)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N23">
         <v>2</v>
-      </c>
-      <c r="N23" cm="1">
-        <f t="array" ref="N23">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A23)))&gt;0, 1, 0)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -4458,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="I24" cm="1">
-        <f t="array" ref="I24">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A24)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I24">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A24)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J24">
@@ -4470,12 +4547,12 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" cm="1">
-        <f t="array" ref="N24">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A24)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M24" cm="1">
+        <f t="array" ref="M24">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A24)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -4505,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="I25" cm="1">
-        <f t="array" ref="I25">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A25)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I25">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A25)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J25">
@@ -4517,12 +4594,11 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="14">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <f>H25</f>
-        <v>0</v>
-      </c>
-      <c r="N25" cm="1">
-        <f t="array" ref="N25">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A25)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4553,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="I26" cm="1">
-        <f t="array" ref="I26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A26)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A26)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J26">
@@ -4565,12 +4641,12 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" cm="1">
-        <f t="array" ref="N26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A26)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M26" cm="1">
+        <f t="array" ref="M26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A26)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -4600,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="I27" cm="1">
-        <f t="array" ref="I27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A27)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A27)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J27">
@@ -4612,12 +4688,12 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27">
-        <f t="shared" ref="M27:M59" si="2">H27</f>
-        <v>0</v>
-      </c>
-      <c r="N27" cm="1">
-        <f t="array" ref="N27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A27)))&gt;0, 1, 0)</f>
+      <c r="M27" cm="1">
+        <f t="array" ref="M27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A27)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>H27</f>
         <v>0</v>
       </c>
     </row>
@@ -4648,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="I28" cm="1">
-        <f t="array" ref="I28">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A28)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I28">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A28)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J28">
@@ -4660,12 +4736,12 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N28" cm="1">
-        <f t="array" ref="N28">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A28)))&gt;0, 1, 0)</f>
+      <c r="M28" cm="1">
+        <f t="array" ref="M28">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A28)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>H28</f>
         <v>0</v>
       </c>
     </row>
@@ -4695,9 +4771,8 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" cm="1">
-        <f t="array" ref="I29">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A29)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I29" s="16">
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -4708,12 +4783,12 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N29" cm="1">
-        <f t="array" ref="N29">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A29)))&gt;0, 1, 0)</f>
+      <c r="M29" cm="1">
+        <f t="array" ref="M29">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A29)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>H29</f>
         <v>0</v>
       </c>
     </row>
@@ -4744,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="I30" cm="1">
-        <f t="array" ref="I30">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A30)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I30">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A30)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J30">
@@ -4756,17 +4831,16 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N30" cm="1">
-        <f t="array" ref="N30">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A30)))&gt;0, 1, 0)</f>
+      <c r="M30" s="14">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f>H30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>20</v>
       </c>
       <c r="B31">
@@ -4792,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="I31" cm="1">
-        <f t="array" ref="I31">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A31)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I31">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A31)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J31">
@@ -4804,12 +4878,12 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
+      <c r="M31" cm="1">
+        <f t="array" ref="M31">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A31)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
         <v>3</v>
-      </c>
-      <c r="N31" cm="1">
-        <f t="array" ref="N31">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A31)))&gt;0, 1, 0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4839,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="I32" cm="1">
-        <f t="array" ref="I32">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A32)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I32">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A32)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J32">
@@ -4851,12 +4925,12 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N32" cm="1">
-        <f t="array" ref="N32">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A32)))&gt;0, 1, 0)</f>
+      <c r="M32" cm="1">
+        <f t="array" ref="M32">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A32)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f>H32</f>
         <v>0</v>
       </c>
     </row>
@@ -4887,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="I33" cm="1">
-        <f t="array" ref="I33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A33)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A33)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J33">
@@ -4899,11 +4973,11 @@
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33" cm="1">
-        <f t="array" ref="N33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A33)))&gt;0, 1, 0)</f>
+      <c r="M33" cm="1">
+        <f t="array" ref="M33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A33)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N33">
         <v>1</v>
       </c>
     </row>
@@ -4934,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="I34" cm="1">
-        <f t="array" ref="I34">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A34)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I34">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A34)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J34">
@@ -4946,12 +5020,12 @@
       <c r="L34">
         <v>1</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N34" cm="1">
-        <f t="array" ref="N34">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A34)))&gt;0, 1, 0)</f>
+      <c r="M34" cm="1">
+        <f t="array" ref="M34">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A34)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>H34</f>
         <v>0</v>
       </c>
     </row>
@@ -4982,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="I35" cm="1">
-        <f t="array" ref="I35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A35)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A35)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J35">
@@ -4994,17 +5068,17 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N35" cm="1">
-        <f t="array" ref="N35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A35)))&gt;0, 1, 0)</f>
-        <v>1</v>
+      <c r="M35" cm="1">
+        <f t="array" ref="M35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A35)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f>H35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>21</v>
       </c>
       <c r="B36">
@@ -5030,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="I36" cm="1">
-        <f t="array" ref="I36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A36)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A36)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J36">
@@ -5042,16 +5116,16 @@
       <c r="L36">
         <v>1</v>
       </c>
-      <c r="M36">
+      <c r="M36" cm="1">
+        <f t="array" ref="M36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A36)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>2</v>
       </c>
-      <c r="N36" cm="1">
-        <f t="array" ref="N36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A36)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>26</v>
       </c>
       <c r="B37">
@@ -5077,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="I37" cm="1">
-        <f t="array" ref="I37">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A37)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I37">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A37)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J37">
@@ -5089,12 +5163,12 @@
       <c r="L37">
         <v>1</v>
       </c>
-      <c r="M37">
+      <c r="M37" cm="1">
+        <f t="array" ref="M37">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A37)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N37">
         <v>4</v>
-      </c>
-      <c r="N37" cm="1">
-        <f t="array" ref="N37">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A37)))&gt;0, 1, 0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -5124,8 +5198,8 @@
         <v>1</v>
       </c>
       <c r="I38" cm="1">
-        <f t="array" ref="I38">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A38)))&gt;0, 1, 0)</f>
-        <v>0</v>
+        <f t="array" ref="I38">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A38)))&gt;0, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -5136,12 +5210,11 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38" cm="1">
-        <f t="array" ref="N38">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A38)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M38" s="14">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -5170,9 +5243,8 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" cm="1">
-        <f t="array" ref="I39">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A39)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I39" s="16">
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -5183,17 +5255,17 @@
       <c r="L39">
         <v>1</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N39" cm="1">
-        <f t="array" ref="N39">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A39)))&gt;0, 1, 0)</f>
+      <c r="M39" cm="1">
+        <f t="array" ref="M39">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A39)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>H39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>22</v>
       </c>
       <c r="B40">
@@ -5219,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="I40" cm="1">
-        <f t="array" ref="I40">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A40)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I40">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A40)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J40">
@@ -5231,12 +5303,11 @@
       <c r="L40">
         <v>1</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="14">
+        <v>1</v>
+      </c>
+      <c r="N40">
         <v>3</v>
-      </c>
-      <c r="N40" cm="1">
-        <f t="array" ref="N40">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A40)))&gt;0, 1, 0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -5266,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="I41" cm="1">
-        <f t="array" ref="I41">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A41)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I41">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A41)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J41">
@@ -5278,12 +5349,12 @@
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41" cm="1">
-        <f t="array" ref="N41">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A41)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M41" cm="1">
+        <f t="array" ref="M41">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A41)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -5313,8 +5384,8 @@
         <v>1</v>
       </c>
       <c r="I42" cm="1">
-        <f t="array" ref="I42">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A42)))&gt;0, 1, 0)</f>
-        <v>0</v>
+        <f t="array" ref="I42">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A42)))&gt;0, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -5325,16 +5396,16 @@
       <c r="L42">
         <v>1</v>
       </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42" cm="1">
-        <f t="array" ref="N42">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A42)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M42" cm="1">
+        <f t="array" ref="M42">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A42)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="4" t="s">
+      <c r="A43" t="s">
         <v>79</v>
       </c>
       <c r="B43">
@@ -5359,9 +5430,8 @@
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43" cm="1">
-        <f t="array" ref="I43">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A43)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I43" s="16">
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -5372,12 +5442,11 @@
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="14">
+        <v>1</v>
+      </c>
+      <c r="N43">
         <v>2</v>
-      </c>
-      <c r="N43" cm="1">
-        <f t="array" ref="N43">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A43)))&gt;0, 1, 0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -5406,9 +5475,8 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" cm="1">
-        <f t="array" ref="I44">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A44)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I44" s="16">
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -5419,12 +5487,12 @@
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N44" cm="1">
-        <f t="array" ref="N44">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A44)))&gt;0, 1, 0)</f>
+      <c r="M44" cm="1">
+        <f t="array" ref="M44">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A44)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>H44</f>
         <v>0</v>
       </c>
     </row>
@@ -5454,9 +5522,8 @@
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45" cm="1">
-        <f t="array" ref="I45">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A45)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I45" s="16">
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -5467,12 +5534,12 @@
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45" cm="1">
-        <f t="array" ref="N45">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A45)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M45" cm="1">
+        <f t="array" ref="M45">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A45)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -5502,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="I46" cm="1">
-        <f t="array" ref="I46">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A46)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I46">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A46)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J46">
@@ -5514,11 +5581,11 @@
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46" cm="1">
-        <f t="array" ref="N46">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A46)))&gt;0, 1, 0)</f>
+      <c r="M46" cm="1">
+        <f t="array" ref="M46">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A46)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N46">
         <v>1</v>
       </c>
     </row>
@@ -5549,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="I47" cm="1">
-        <f t="array" ref="I47">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A47)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I47">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A47)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J47">
@@ -5561,17 +5628,17 @@
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N47" cm="1">
-        <f t="array" ref="N47">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A47)))&gt;0, 1, 0)</f>
+      <c r="M47" cm="1">
+        <f t="array" ref="M47">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A47)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>H47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>25</v>
       </c>
       <c r="B48">
@@ -5597,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="I48" cm="1">
-        <f t="array" ref="I48">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A48)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I48">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A48)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J48">
@@ -5609,12 +5676,12 @@
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48" cm="1">
-        <f t="array" ref="N48">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A48)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M48" cm="1">
+        <f t="array" ref="M48">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A48)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -5643,9 +5710,8 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" cm="1">
-        <f t="array" ref="I49">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A49)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I49" s="16">
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -5656,12 +5722,12 @@
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N49" cm="1">
-        <f t="array" ref="N49">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A49)))&gt;0, 1, 0)</f>
+      <c r="M49" cm="1">
+        <f t="array" ref="M49">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A49)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f>H49</f>
         <v>0</v>
       </c>
     </row>
@@ -5692,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="I50" cm="1">
-        <f t="array" ref="I50">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A50)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I50">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A50)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J50">
@@ -5704,12 +5770,12 @@
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50" cm="1">
-        <f t="array" ref="N50">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A50)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M50" cm="1">
+        <f t="array" ref="M50">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A50)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -5739,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="I51" cm="1">
-        <f t="array" ref="I51">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A51)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I51">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A51)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J51">
@@ -5751,12 +5817,12 @@
       <c r="L51">
         <v>1</v>
       </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51" cm="1">
-        <f t="array" ref="N51">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A51)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M51" cm="1">
+        <f t="array" ref="M51">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A51)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -5786,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="I52" cm="1">
-        <f t="array" ref="I52">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A52)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I52">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A52)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J52">
@@ -5798,11 +5864,10 @@
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52" cm="1">
-        <f t="array" ref="N52">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A52)))&gt;0, 1, 0)</f>
+      <c r="M52" s="14">
+        <v>0</v>
+      </c>
+      <c r="N52">
         <v>1</v>
       </c>
     </row>
@@ -5832,9 +5897,8 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" cm="1">
-        <f t="array" ref="I53">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A53)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I53" s="16">
+        <v>1</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -5845,12 +5909,12 @@
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N53" cm="1">
-        <f t="array" ref="N53">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A53)))&gt;0, 1, 0)</f>
+      <c r="M53" cm="1">
+        <f t="array" ref="M53">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A53)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <f>H53</f>
         <v>0</v>
       </c>
       <c r="P53" t="s">
@@ -5884,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="I54" cm="1">
-        <f t="array" ref="I54">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A54)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I54">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A54)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J54">
@@ -5896,16 +5960,15 @@
       <c r="L54">
         <v>1</v>
       </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54" cm="1">
-        <f t="array" ref="N54">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A54)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M54" s="14">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>27</v>
       </c>
       <c r="B55">
@@ -5930,9 +5993,8 @@
       <c r="H55">
         <v>1</v>
       </c>
-      <c r="I55" cm="1">
-        <f t="array" ref="I55">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A55)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I55" s="16">
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -5943,12 +6005,11 @@
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55" cm="1">
-        <f t="array" ref="N55">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A55)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M55" s="14">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -5978,7 +6039,7 @@
         <v>1</v>
       </c>
       <c r="I56" cm="1">
-        <f t="array" ref="I56">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A56)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I56">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A56)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J56">
@@ -5990,16 +6051,16 @@
       <c r="L56">
         <v>0</v>
       </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56" cm="1">
-        <f t="array" ref="N56">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A56)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M56" cm="1">
+        <f t="array" ref="M56">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A56)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="4" t="s">
+      <c r="A57" t="s">
         <v>8</v>
       </c>
       <c r="B57">
@@ -6024,9 +6085,8 @@
       <c r="H57">
         <v>1</v>
       </c>
-      <c r="I57" cm="1">
-        <f t="array" ref="I57">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A57)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I57" s="16">
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -6037,12 +6097,11 @@
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57" cm="1">
-        <f t="array" ref="N57">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A57)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M57" s="14">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -6071,9 +6130,8 @@
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="I58" cm="1">
-        <f t="array" ref="I58">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A58)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I58" s="16">
+        <v>1</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -6084,12 +6142,12 @@
       <c r="L58">
         <v>1</v>
       </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58" cm="1">
-        <f t="array" ref="N58">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A58)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M58" cm="1">
+        <f t="array" ref="M58">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A58)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -6119,8 +6177,8 @@
         <v>0</v>
       </c>
       <c r="I59" cm="1">
-        <f t="array" ref="I59">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A59)))&gt;0, 1, 0)</f>
-        <v>0</v>
+        <f t="array" ref="I59">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A59)))&gt;0, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -6131,16 +6189,13 @@
       <c r="L59">
         <v>0</v>
       </c>
-      <c r="M59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N59" cm="1">
-        <f t="array" ref="N59">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A59)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="O59" t="s">
-        <v>76</v>
+      <c r="M59" cm="1">
+        <f t="array" ref="M59">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A59)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f>H59</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -6170,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="I60" cm="1">
-        <f t="array" ref="I60">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A60)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I60">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A60)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J60">
@@ -6182,12 +6237,15 @@
       <c r="L60">
         <v>1</v>
       </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60" cm="1">
-        <f t="array" ref="N60">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A60)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M60" cm="1">
+        <f t="array" ref="M60">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A60)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -6217,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="I61" cm="1">
-        <f t="array" ref="I61">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A61)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I61">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A61)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J61">
@@ -6229,12 +6287,12 @@
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61" cm="1">
-        <f t="array" ref="N61">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A61)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M61" cm="1">
+        <f t="array" ref="M61">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A61)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -6263,9 +6321,8 @@
       <c r="H62">
         <v>1</v>
       </c>
-      <c r="I62" cm="1">
-        <f t="array" ref="I62">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A62)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I62" s="16">
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -6276,12 +6333,11 @@
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62" cm="1">
-        <f t="array" ref="N62">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A62)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M62" s="14">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -6310,9 +6366,8 @@
       <c r="H63">
         <v>1</v>
       </c>
-      <c r="I63" cm="1">
-        <f t="array" ref="I63">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A63)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I63" s="16">
+        <v>1</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -6323,12 +6378,12 @@
       <c r="L63">
         <v>1</v>
       </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63" cm="1">
-        <f t="array" ref="N63">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A63)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M63" cm="1">
+        <f t="array" ref="M63">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A63)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -6358,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="I64" cm="1">
-        <f t="array" ref="I64">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A64)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I64">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A64)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J64">
@@ -6370,12 +6425,12 @@
       <c r="L64">
         <v>1</v>
       </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64" cm="1">
-        <f t="array" ref="N64">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$3,A64)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="M64" cm="1">
+        <f t="array" ref="M64">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A64)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6385,11 +6440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54AE081-38B0-4280-99DA-AC68007D33A2}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6405,95 +6459,95 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="15" customFormat="1" hidden="1">
-      <c r="A2" s="15">
+    <row r="2" spans="1:3" s="19" customFormat="1">
+      <c r="A2" s="19">
         <v>14</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="15" customFormat="1" hidden="1">
-      <c r="A3" s="15">
+    <row r="3" spans="1:3" s="19" customFormat="1">
+      <c r="A3" s="19">
         <v>19</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="15" customFormat="1" hidden="1">
-      <c r="A4" s="15">
+    <row r="4" spans="1:3" s="19" customFormat="1">
+      <c r="A4" s="19">
         <v>23</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="15" customFormat="1" hidden="1">
-      <c r="A5" s="15">
+    <row r="5" spans="1:3" s="19" customFormat="1">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="15" customFormat="1" hidden="1">
-      <c r="A6" s="15">
+    <row r="6" spans="1:3" s="19" customFormat="1">
+      <c r="A6" s="19">
         <v>28</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="15" customFormat="1" hidden="1">
-      <c r="A7" s="15">
+    <row r="7" spans="1:3" s="19" customFormat="1">
+      <c r="A7" s="19">
         <v>31</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="15" customFormat="1" hidden="1">
-      <c r="A8" s="15">
+    <row r="8" spans="1:3" s="19" customFormat="1">
+      <c r="A8" s="19">
         <v>33</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="15" customFormat="1" hidden="1">
-      <c r="A9" s="15">
+    <row r="9" spans="1:3" s="19" customFormat="1">
+      <c r="A9" s="19">
         <v>37</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="15" customFormat="1" hidden="1">
-      <c r="A10" s="15">
+    <row r="10" spans="1:3" s="19" customFormat="1">
+      <c r="A10" s="19">
         <v>41</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="15" customFormat="1" hidden="1">
-      <c r="A11" s="15">
+    <row r="11" spans="1:3" s="19" customFormat="1">
+      <c r="A11" s="19">
         <v>43</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="15" customFormat="1" hidden="1">
-      <c r="A12" s="15">
+    <row r="12" spans="1:3" s="19" customFormat="1">
+      <c r="A12" s="19">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6501,7 +6555,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6509,7 +6563,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6517,7 +6571,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -6525,7 +6579,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -6533,7 +6587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6541,7 +6595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -6549,7 +6603,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -6557,7 +6611,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -6565,7 +6619,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>34</v>
       </c>
@@ -6573,7 +6627,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>38</v>
       </c>
@@ -6581,7 +6635,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -6589,7 +6643,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>15</v>
       </c>
@@ -6597,7 +6651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>20</v>
       </c>
@@ -6605,7 +6659,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -6613,7 +6667,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6621,7 +6675,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -6629,7 +6683,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>32</v>
       </c>
@@ -6637,7 +6691,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>21</v>
       </c>
@@ -6645,7 +6699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>39</v>
       </c>
@@ -6653,7 +6707,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>42</v>
       </c>
@@ -6661,7 +6715,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>44</v>
       </c>
@@ -6669,7 +6723,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>45</v>
       </c>
@@ -6677,7 +6731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>46</v>
       </c>
@@ -6685,7 +6739,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -6693,31 +6747,31 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="15" customFormat="1" hidden="1">
-      <c r="A38" s="15">
+    <row r="38" spans="1:2" s="19" customFormat="1">
+      <c r="A38" s="19">
         <v>6</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="15" customFormat="1" hidden="1">
-      <c r="A39" s="15">
+    <row r="39" spans="1:2" s="19" customFormat="1">
+      <c r="A39" s="19">
         <v>16</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="15" customFormat="1" hidden="1">
-      <c r="A40" s="15">
+    <row r="40" spans="1:2" s="19" customFormat="1">
+      <c r="A40" s="19">
         <v>7</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>8</v>
       </c>
@@ -6725,7 +6779,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -6733,7 +6787,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>21</v>
       </c>
@@ -6741,7 +6795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -6749,7 +6803,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -6757,7 +6811,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -6765,7 +6819,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -6773,7 +6827,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>35</v>
       </c>
@@ -6781,7 +6835,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -6789,7 +6843,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>17</v>
       </c>
@@ -6797,7 +6851,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -6805,7 +6859,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>25</v>
       </c>
@@ -6813,7 +6867,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>10</v>
       </c>
@@ -6821,7 +6875,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>15</v>
       </c>
@@ -6829,7 +6883,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>22</v>
       </c>
@@ -6837,7 +6891,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>5</v>
       </c>
@@ -6845,7 +6899,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -6861,7 +6915,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -6869,7 +6923,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>36</v>
       </c>
@@ -6877,7 +6931,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>40</v>
       </c>
@@ -6885,7 +6939,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>7</v>
       </c>
@@ -6893,39 +6947,39 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="15" customFormat="1" hidden="1">
-      <c r="A63" s="15">
+    <row r="63" spans="1:2" s="19" customFormat="1">
+      <c r="A63" s="19">
         <v>11</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="15" customFormat="1" hidden="1">
-      <c r="A64" s="15">
+    <row r="64" spans="1:2" s="19" customFormat="1">
+      <c r="A64" s="19">
         <v>12</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="15" customFormat="1" hidden="1">
-      <c r="A65" s="15">
+    <row r="65" spans="1:2" s="19" customFormat="1">
+      <c r="A65" s="19">
         <v>18</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="15" customFormat="1" hidden="1">
-      <c r="A66" s="15">
+    <row r="66" spans="1:2" s="19" customFormat="1">
+      <c r="A66" s="19">
         <v>13</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -6933,7 +6987,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -6941,7 +6995,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>27</v>
       </c>
@@ -6949,7 +7003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>15</v>
       </c>
@@ -6957,7 +7011,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>24</v>
       </c>
@@ -6965,7 +7019,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>21</v>
       </c>
@@ -6973,7 +7027,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -6981,7 +7035,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>27</v>
       </c>
@@ -6989,7 +7043,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>41</v>
       </c>
@@ -6997,7 +7051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>24</v>
       </c>
@@ -7005,7 +7059,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>20</v>
       </c>
@@ -7013,7 +7067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>39</v>
       </c>
@@ -7021,7 +7075,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>21</v>
       </c>
@@ -7029,7 +7083,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>4</v>
       </c>
@@ -7037,7 +7091,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -7045,7 +7099,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>32</v>
       </c>
@@ -7053,7 +7107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>47</v>
       </c>
@@ -7061,7 +7115,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>48</v>
       </c>
@@ -7070,13 +7124,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A84" xr:uid="{36E82429-36F5-4969-B128-1812AF8D8580}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="30"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A84" xr:uid="{36E82429-36F5-4969-B128-1812AF8D8580}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7084,11 +7132,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1304E1C6-692A-4F7C-A7D7-EE2F770E588B}">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+    <sheetView zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7100,7 +7150,7 @@
     <col min="9" max="9" width="13.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -7125,7 +7175,7 @@
       <c r="H1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -7134,18 +7184,24 @@
       <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="6" t="s">
+      <c r="O1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -7179,7 +7235,7 @@
         <v>12</v>
       </c>
       <c r="K2" cm="1">
-        <f t="array" ref="K2">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A2)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K2">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A2)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L2">
@@ -7191,13 +7247,19 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Q2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7227,9 +7289,8 @@
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3" cm="1">
-        <f t="array" ref="K3">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A3)))&gt;0, 1, 0)</f>
-        <v>1</v>
+      <c r="K3" s="16">
+        <v>0</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -7240,11 +7301,17 @@
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="14">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="Q3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7277,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="K4" cm="1">
-        <f t="array" ref="K4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A4)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A4)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L4">
@@ -7289,11 +7356,18 @@
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" cm="1">
+        <f t="array" ref="O4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A4)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="Q4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -7326,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="K5" cm="1">
-        <f t="array" ref="K5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A5)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A5)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L5">
@@ -7338,12 +7412,19 @@
       <c r="N5">
         <v>1</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" cm="1">
+        <f t="array" ref="O5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A5)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="6" t="s">
+      <c r="Q5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B6">
@@ -7375,7 +7456,7 @@
         <v>9</v>
       </c>
       <c r="K6" cm="1">
-        <f t="array" ref="K6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A6)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A6)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L6">
@@ -7387,11 +7468,15 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" cm="1">
+        <f t="array" ref="O6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A6)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -7424,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="K7" cm="1">
-        <f t="array" ref="K7">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A7)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K7">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A7)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L7">
@@ -7436,12 +7521,16 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="6" t="s">
+      <c r="O7" cm="1">
+        <f t="array" ref="O7">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A7)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B8">
@@ -7473,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="K8" cm="1">
-        <f t="array" ref="K8">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A8)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K8">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A8)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L8">
@@ -7485,8 +7574,15 @@
       <c r="N8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8" cm="1">
+        <f t="array" ref="O8">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A8)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -7520,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="K9" cm="1">
-        <f t="array" ref="K9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A9)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A9)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L9">
@@ -7532,9 +7628,13 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="6" t="s">
+      <c r="O9" cm="1">
+        <f t="array" ref="O9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A9)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B10">
@@ -7566,7 +7666,7 @@
         <v>1</v>
       </c>
       <c r="K10" cm="1">
-        <f t="array" ref="K10">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A10)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K10">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A10)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L10">
@@ -7578,9 +7678,13 @@
       <c r="N10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="6" t="s">
+      <c r="O10" cm="1">
+        <f t="array" ref="O10">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A10)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B11">
@@ -7612,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="K11" cm="1">
-        <f t="array" ref="K11">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A11)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K11">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A11)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L11">
@@ -7624,9 +7728,13 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="6" t="s">
+      <c r="O11" cm="1">
+        <f t="array" ref="O11">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A11)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B12">
@@ -7658,7 +7766,7 @@
         <v>4</v>
       </c>
       <c r="K12" cm="1">
-        <f t="array" ref="K12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A12)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A12)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L12">
@@ -7670,9 +7778,13 @@
       <c r="N12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="6" t="s">
+      <c r="O12" cm="1">
+        <f t="array" ref="O12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A12)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B13">
@@ -7704,7 +7816,7 @@
         <v>5</v>
       </c>
       <c r="K13" cm="1">
-        <f t="array" ref="K13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A13)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A13)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L13">
@@ -7716,9 +7828,13 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
+      <c r="O13" cm="1">
+        <f t="array" ref="O13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A13)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B14">
@@ -7750,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="K14" cm="1">
-        <f t="array" ref="K14">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A14)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K14">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A14)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L14">
@@ -7762,8 +7878,12 @@
       <c r="N14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14" cm="1">
+        <f t="array" ref="O14">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A14)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -7797,7 +7917,7 @@
         <v>3</v>
       </c>
       <c r="K15" cm="1">
-        <f t="array" ref="K15">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A15)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K15">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A15)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L15">
@@ -7809,8 +7929,12 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15" cm="1">
+        <f t="array" ref="O15">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A15)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -7844,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="K16" cm="1">
-        <f t="array" ref="K16">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A16)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K16">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A16)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L16">
@@ -7856,9 +7980,13 @@
       <c r="N16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="5" t="s">
+      <c r="O16" cm="1">
+        <f t="array" ref="O16">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A16)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B17">
@@ -7891,7 +8019,7 @@
         <v>6</v>
       </c>
       <c r="K17" cm="1">
-        <f t="array" ref="K17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A17)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A17)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L17">
@@ -7903,9 +8031,13 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="4" t="s">
+      <c r="O17" cm="1">
+        <f t="array" ref="O17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A17)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18">
@@ -7938,7 +8070,7 @@
         <v>6</v>
       </c>
       <c r="K18" cm="1">
-        <f t="array" ref="K18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A18)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A18)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L18">
@@ -7950,8 +8082,12 @@
       <c r="N18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" cm="1">
+        <f t="array" ref="O18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A18)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -7985,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="K19" cm="1">
-        <f t="array" ref="K19">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A19)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K19">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A19)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L19">
@@ -7997,9 +8133,13 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="4" t="s">
+      <c r="O19" cm="1">
+        <f t="array" ref="O19">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A19)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
@@ -8032,7 +8172,7 @@
         <v>13</v>
       </c>
       <c r="K20" cm="1">
-        <f t="array" ref="K20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A20)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A20)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L20">
@@ -8044,9 +8184,13 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="4" t="s">
+      <c r="O20" cm="1">
+        <f t="array" ref="O20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A20)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21">
@@ -8079,7 +8223,7 @@
         <v>7</v>
       </c>
       <c r="K21" cm="1">
-        <f t="array" ref="K21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A21)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A21)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L21">
@@ -8091,8 +8235,12 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" cm="1">
+        <f t="array" ref="O21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A21)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -8126,7 +8274,7 @@
         <v>11</v>
       </c>
       <c r="K22" cm="1">
-        <f t="array" ref="K22">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A22)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K22">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A22)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L22">
@@ -8138,9 +8286,12 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="4" t="s">
+      <c r="O22" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23">
@@ -8173,7 +8324,7 @@
         <v>8</v>
       </c>
       <c r="K23" cm="1">
-        <f t="array" ref="K23">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A23)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K23">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A23)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L23">
@@ -8185,8 +8336,12 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" cm="1">
+        <f t="array" ref="O23">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A23)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -8220,7 +8375,7 @@
         <v>2</v>
       </c>
       <c r="K24" cm="1">
-        <f t="array" ref="K24">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A24)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K24">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A24)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L24">
@@ -8232,8 +8387,12 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" cm="1">
+        <f t="array" ref="O24">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A24)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -8267,7 +8426,7 @@
         <v>17</v>
       </c>
       <c r="K25" cm="1">
-        <f t="array" ref="K25">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A25)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K25">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A25)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L25">
@@ -8279,8 +8438,11 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -8314,7 +8476,7 @@
         <v>5</v>
       </c>
       <c r="K26" cm="1">
-        <f t="array" ref="K26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A26)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A26)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L26">
@@ -8326,8 +8488,12 @@
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" cm="1">
+        <f t="array" ref="O26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A26)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -8361,7 +8527,7 @@
         <v>3</v>
       </c>
       <c r="K27" cm="1">
-        <f t="array" ref="K27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A27)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A27)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L27">
@@ -8373,8 +8539,12 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" cm="1">
+        <f t="array" ref="O27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A27)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -8408,7 +8578,7 @@
         <v>9</v>
       </c>
       <c r="K28" cm="1">
-        <f t="array" ref="K28">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A28)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K28">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A28)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L28">
@@ -8420,8 +8590,12 @@
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" cm="1">
+        <f t="array" ref="O28">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A28)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -8454,9 +8628,8 @@
         <f>2016-'Mapping article title to number'!F29</f>
         <v>7</v>
       </c>
-      <c r="K29" cm="1">
-        <f t="array" ref="K29">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A29)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="K29" s="16">
+        <v>1</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -8467,8 +8640,12 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" cm="1">
+        <f t="array" ref="O29">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A29)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -8502,7 +8679,7 @@
         <v>22</v>
       </c>
       <c r="K30" cm="1">
-        <f t="array" ref="K30">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A30)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K30">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A30)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L30">
@@ -8514,9 +8691,12 @@
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="4" t="s">
+      <c r="O30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
         <v>20</v>
       </c>
       <c r="B31">
@@ -8549,7 +8729,7 @@
         <v>4</v>
       </c>
       <c r="K31" cm="1">
-        <f t="array" ref="K31">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A31)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K31">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A31)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L31">
@@ -8561,8 +8741,12 @@
       <c r="N31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" cm="1">
+        <f t="array" ref="O31">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A31)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -8596,7 +8780,7 @@
         <v>11</v>
       </c>
       <c r="K32" cm="1">
-        <f t="array" ref="K32">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A32)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K32">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A32)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L32">
@@ -8608,8 +8792,12 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" cm="1">
+        <f t="array" ref="O32">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A32)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -8643,7 +8831,7 @@
         <v>6</v>
       </c>
       <c r="K33" cm="1">
-        <f t="array" ref="K33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A33)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A33)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L33">
@@ -8655,8 +8843,12 @@
       <c r="N33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" cm="1">
+        <f t="array" ref="O33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A33)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -8690,7 +8882,7 @@
         <v>4</v>
       </c>
       <c r="K34" cm="1">
-        <f t="array" ref="K34">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A34)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K34">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A34)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L34">
@@ -8702,8 +8894,12 @@
       <c r="N34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" cm="1">
+        <f t="array" ref="O34">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A34)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -8737,7 +8933,7 @@
         <v>13</v>
       </c>
       <c r="K35" cm="1">
-        <f t="array" ref="K35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A35)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A35)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L35">
@@ -8749,9 +8945,13 @@
       <c r="N35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="4" t="s">
+      <c r="O35" cm="1">
+        <f t="array" ref="O35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A35)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
         <v>21</v>
       </c>
       <c r="B36">
@@ -8784,7 +8984,7 @@
         <v>13</v>
       </c>
       <c r="K36" cm="1">
-        <f t="array" ref="K36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A36)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A36)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L36">
@@ -8796,9 +8996,13 @@
       <c r="N36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="4" t="s">
+      <c r="O36" cm="1">
+        <f t="array" ref="O36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A36)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
         <v>26</v>
       </c>
       <c r="B37">
@@ -8831,7 +9035,7 @@
         <v>3</v>
       </c>
       <c r="K37" cm="1">
-        <f t="array" ref="K37">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A37)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K37">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A37)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L37">
@@ -8843,8 +9047,12 @@
       <c r="N37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" cm="1">
+        <f t="array" ref="O37">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A37)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -8878,8 +9086,8 @@
         <v>17</v>
       </c>
       <c r="K38" cm="1">
-        <f t="array" ref="K38">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A38)))&gt;0, 1, 0)</f>
-        <v>0</v>
+        <f t="array" ref="K38">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A38)))&gt;0, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -8890,8 +9098,11 @@
       <c r="N38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -8924,9 +9135,8 @@
         <f>2016-'Mapping article title to number'!F39</f>
         <v>13</v>
       </c>
-      <c r="K39" cm="1">
-        <f t="array" ref="K39">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A39)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="K39" s="16">
+        <v>1</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -8937,9 +9147,13 @@
       <c r="N39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="4" t="s">
+      <c r="O39" cm="1">
+        <f t="array" ref="O39">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A39)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
         <v>22</v>
       </c>
       <c r="B40">
@@ -8972,7 +9186,7 @@
         <v>7</v>
       </c>
       <c r="K40" cm="1">
-        <f t="array" ref="K40">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A40)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K40">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A40)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L40">
@@ -8984,8 +9198,11 @@
       <c r="N40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -9019,7 +9236,7 @@
         <v>5</v>
       </c>
       <c r="K41" cm="1">
-        <f t="array" ref="K41">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A41)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K41">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A41)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L41">
@@ -9031,8 +9248,12 @@
       <c r="N41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41" cm="1">
+        <f t="array" ref="O41">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A41)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -9066,8 +9287,8 @@
         <v>16</v>
       </c>
       <c r="K42" cm="1">
-        <f t="array" ref="K42">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A42)))&gt;0, 1, 0)</f>
-        <v>0</v>
+        <f t="array" ref="K42">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A42)))&gt;0, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -9078,9 +9299,13 @@
       <c r="N42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="4" t="s">
+      <c r="O42" cm="1">
+        <f t="array" ref="O42">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A42)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
         <v>79</v>
       </c>
       <c r="B43">
@@ -9112,9 +9337,8 @@
         <f>2016-'Mapping article title to number'!F43</f>
         <v>10</v>
       </c>
-      <c r="K43" cm="1">
-        <f t="array" ref="K43">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A43)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="K43" s="16">
+        <v>1</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -9125,8 +9349,11 @@
       <c r="N43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -9159,9 +9386,8 @@
         <f>2016-'Mapping article title to number'!F44</f>
         <v>7</v>
       </c>
-      <c r="K44" cm="1">
-        <f t="array" ref="K44">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A44)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="K44" s="16">
+        <v>1</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -9172,8 +9398,12 @@
       <c r="N44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44" cm="1">
+        <f t="array" ref="O44">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A44)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -9206,9 +9436,8 @@
         <f>2016-'Mapping article title to number'!F45</f>
         <v>9</v>
       </c>
-      <c r="K45" cm="1">
-        <f t="array" ref="K45">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A45)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="K45" s="16">
+        <v>1</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -9219,8 +9448,12 @@
       <c r="N45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45" cm="1">
+        <f t="array" ref="O45">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A45)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -9254,7 +9487,7 @@
         <v>14</v>
       </c>
       <c r="K46" cm="1">
-        <f t="array" ref="K46">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A46)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K46">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A46)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L46">
@@ -9266,8 +9499,12 @@
       <c r="N46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46" cm="1">
+        <f t="array" ref="O46">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A46)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -9301,7 +9538,7 @@
         <v>16</v>
       </c>
       <c r="K47" cm="1">
-        <f t="array" ref="K47">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A47)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K47">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A47)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L47">
@@ -9313,9 +9550,13 @@
       <c r="N47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="4" t="s">
+      <c r="O47" cm="1">
+        <f t="array" ref="O47">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A47)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" t="s">
         <v>25</v>
       </c>
       <c r="B48">
@@ -9348,7 +9589,7 @@
         <v>15</v>
       </c>
       <c r="K48" cm="1">
-        <f t="array" ref="K48">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A48)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K48">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A48)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L48">
@@ -9360,8 +9601,12 @@
       <c r="N48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="O48" cm="1">
+        <f t="array" ref="O48">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A48)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -9388,15 +9633,14 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="J49">
         <f>2016-'Mapping article title to number'!F49</f>
-        <v>6</v>
-      </c>
-      <c r="K49" cm="1">
-        <f t="array" ref="K49">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A49)))&gt;0, 1, 0)</f>
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K49" s="16">
+        <v>1</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -9407,8 +9651,12 @@
       <c r="N49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="O49" cm="1">
+        <f t="array" ref="O49">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A49)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -9442,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="K50" cm="1">
-        <f t="array" ref="K50">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A50)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K50">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A50)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L50">
@@ -9454,8 +9702,12 @@
       <c r="N50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="O50" cm="1">
+        <f t="array" ref="O50">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A50)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -9482,14 +9734,14 @@
         <v>1</v>
       </c>
       <c r="I51">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="J51">
         <f>2016-'Mapping article title to number'!F51</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K51" cm="1">
-        <f t="array" ref="K51">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A51)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K51">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A51)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L51">
@@ -9501,8 +9753,12 @@
       <c r="N51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="O51" cm="1">
+        <f t="array" ref="O51">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A51)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -9536,7 +9792,7 @@
         <v>11</v>
       </c>
       <c r="K52" cm="1">
-        <f t="array" ref="K52">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A52)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K52">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A52)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L52">
@@ -9548,8 +9804,11 @@
       <c r="N52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="O52" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -9582,9 +9841,8 @@
         <f>2016-'Mapping article title to number'!F53</f>
         <v>5</v>
       </c>
-      <c r="K53" cm="1">
-        <f t="array" ref="K53">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A53)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="K53" s="16">
+        <v>1</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -9595,11 +9853,15 @@
       <c r="N53">
         <v>0</v>
       </c>
-      <c r="P53" t="s">
+      <c r="O53" cm="1">
+        <f t="array" ref="O53">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A53)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -9633,7 +9895,7 @@
         <v>10</v>
       </c>
       <c r="K54" cm="1">
-        <f t="array" ref="K54">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A54)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K54">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A54)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="L54">
@@ -9645,9 +9907,12 @@
       <c r="N54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="4" t="s">
+      <c r="O54" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" t="s">
         <v>27</v>
       </c>
       <c r="B55">
@@ -9679,9 +9944,8 @@
         <f>2016-'Mapping article title to number'!F55</f>
         <v>3</v>
       </c>
-      <c r="K55" cm="1">
-        <f t="array" ref="K55">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A55)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="K55" s="16">
+        <v>1</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -9692,8 +9956,11 @@
       <c r="N55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="O55" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -9727,7 +9994,7 @@
         <v>20</v>
       </c>
       <c r="K56" cm="1">
-        <f t="array" ref="K56">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A56)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K56">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A56)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L56">
@@ -9739,9 +10006,13 @@
       <c r="N56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="4" t="s">
+      <c r="O56" cm="1">
+        <f t="array" ref="O56">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A56)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" t="s">
         <v>8</v>
       </c>
       <c r="B57">
@@ -9773,9 +10044,8 @@
         <f>2016-'Mapping article title to number'!F57</f>
         <v>7</v>
       </c>
-      <c r="K57" cm="1">
-        <f t="array" ref="K57">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A57)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="K57" s="16">
+        <v>1</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -9786,8 +10056,11 @@
       <c r="N57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="O57" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -9820,9 +10093,8 @@
         <f>2016-'Mapping article title to number'!F58</f>
         <v>9</v>
       </c>
-      <c r="K58" cm="1">
-        <f t="array" ref="K58">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A58)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="K58" s="16">
+        <v>1</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -9833,8 +10105,12 @@
       <c r="N58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="O58" cm="1">
+        <f t="array" ref="O58">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A58)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -9865,11 +10141,11 @@
       </c>
       <c r="J59">
         <f>2016-'Mapping article title to number'!F59</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K59" cm="1">
-        <f t="array" ref="K59">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A59)))&gt;0, 1, 0)</f>
-        <v>0</v>
+        <f t="array" ref="K59">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A59)))&gt;0, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -9880,11 +10156,12 @@
       <c r="N59">
         <v>0</v>
       </c>
-      <c r="O59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="O59" cm="1">
+        <f t="array" ref="O59">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A59)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -9918,7 +10195,7 @@
         <v>9</v>
       </c>
       <c r="K60" cm="1">
-        <f t="array" ref="K60">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A60)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K60">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A60)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L60">
@@ -9930,8 +10207,15 @@
       <c r="N60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="O60" cm="1">
+        <f t="array" ref="O60">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A60)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -9965,7 +10249,7 @@
         <v>10</v>
       </c>
       <c r="K61" cm="1">
-        <f t="array" ref="K61">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A61)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K61">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A61)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L61">
@@ -9977,8 +10261,12 @@
       <c r="N61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="O61" cm="1">
+        <f t="array" ref="O61">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A61)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>31</v>
       </c>
@@ -10011,9 +10299,8 @@
         <f>2016-'Mapping article title to number'!F62</f>
         <v>6</v>
       </c>
-      <c r="K62" cm="1">
-        <f t="array" ref="K62">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A62)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="K62" s="16">
+        <v>1</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -10024,8 +10311,11 @@
       <c r="N62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="O62" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -10058,9 +10348,8 @@
         <f>2016-'Mapping article title to number'!F63</f>
         <v>10</v>
       </c>
-      <c r="K63" cm="1">
-        <f t="array" ref="K63">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A63)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="K63" s="16">
+        <v>1</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -10071,8 +10360,12 @@
       <c r="N63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="O63" cm="1">
+        <f t="array" ref="O63">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A63)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -10106,7 +10399,7 @@
         <v>10</v>
       </c>
       <c r="K64" cm="1">
-        <f t="array" ref="K64">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A64)))&gt;0, 1, 0)</f>
+        <f t="array" ref="K64">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A64)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="L64">
@@ -10118,9 +10411,13 @@
       <c r="N64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" t="s">
+      <c r="O64" cm="1">
+        <f t="array" ref="O64">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A64)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B65">
@@ -10142,7 +10439,7 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
@@ -10152,21 +10449,25 @@
         <v>2</v>
       </c>
       <c r="K65" cm="1">
-        <f t="array" ref="K65">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A65)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L65" s="10">
-        <v>1</v>
-      </c>
-      <c r="M65" s="10">
+        <f t="array" ref="K65">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A65)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" t="s">
+      <c r="O65" cm="1">
+        <f t="array" ref="O65">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A65)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="18" t="s">
         <v>106</v>
       </c>
       <c r="B66">
@@ -10188,7 +10489,7 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
@@ -10198,21 +10499,25 @@
         <v>3</v>
       </c>
       <c r="K66" cm="1">
-        <f t="array" ref="K66">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A66)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="L66" s="10">
-        <v>1</v>
-      </c>
-      <c r="M66" s="10">
+        <f t="array" ref="K66">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A66)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" t="s">
+      <c r="O66" cm="1">
+        <f t="array" ref="O66">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A66)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="18" t="s">
         <v>107</v>
       </c>
       <c r="B67">
@@ -10222,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D87" si="1">C67+B67</f>
+        <f t="shared" ref="D67:D86" si="1">C67+B67</f>
         <v>0</v>
       </c>
       <c r="E67">
@@ -10234,7 +10539,7 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
@@ -10244,21 +10549,25 @@
         <v>4</v>
       </c>
       <c r="K67" cm="1">
-        <f t="array" ref="K67">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A67)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="10">
-        <v>1</v>
-      </c>
-      <c r="M67" s="10">
+        <f t="array" ref="K67">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A67)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" t="s">
+      <c r="O67" cm="1">
+        <f t="array" ref="O67">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A67)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B68">
@@ -10280,7 +10589,7 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
@@ -10290,21 +10599,25 @@
         <v>1</v>
       </c>
       <c r="K68" cm="1">
-        <f t="array" ref="K68">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A68)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L68" s="10">
-        <v>1</v>
-      </c>
-      <c r="M68" s="10">
+        <f t="array" ref="K68">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A68)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" t="s">
+      <c r="O68" cm="1">
+        <f t="array" ref="O68">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A68)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="18" t="s">
         <v>109</v>
       </c>
       <c r="B69">
@@ -10326,7 +10639,7 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
@@ -10336,21 +10649,25 @@
         <v>3</v>
       </c>
       <c r="K69" cm="1">
-        <f t="array" ref="K69">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A69)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="10">
-        <v>1</v>
-      </c>
-      <c r="M69" s="10">
+        <f t="array" ref="K69">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A69)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" t="s">
+      <c r="O69" cm="1">
+        <f t="array" ref="O69">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A69)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="18" t="s">
         <v>110</v>
       </c>
       <c r="B70">
@@ -10372,7 +10689,7 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
@@ -10382,21 +10699,25 @@
         <v>4</v>
       </c>
       <c r="K70" cm="1">
-        <f t="array" ref="K70">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A70)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L70" s="10">
-        <v>1</v>
-      </c>
-      <c r="M70" s="10">
+        <f t="array" ref="K70">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A70)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" t="s">
+      <c r="O70" cm="1">
+        <f t="array" ref="O70">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A70)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="18" t="s">
         <v>111</v>
       </c>
       <c r="B71">
@@ -10418,7 +10739,7 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
@@ -10428,21 +10749,25 @@
         <v>2</v>
       </c>
       <c r="K71" cm="1">
-        <f t="array" ref="K71">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A71)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="10">
-        <v>1</v>
-      </c>
-      <c r="M71" s="10">
+        <f t="array" ref="K71">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A71)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" t="s">
+      <c r="O71" cm="1">
+        <f t="array" ref="O71">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A71)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B72">
@@ -10464,7 +10789,7 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
@@ -10474,21 +10799,24 @@
         <v>3</v>
       </c>
       <c r="K72" cm="1">
-        <f t="array" ref="K72">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A72)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L72" s="10">
-        <v>1</v>
-      </c>
-      <c r="M72" s="10">
+        <f t="array" ref="K72">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A72)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" t="s">
+      <c r="O72" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="18" t="s">
         <v>113</v>
       </c>
       <c r="B73">
@@ -10510,7 +10838,7 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
@@ -10520,21 +10848,25 @@
         <v>1</v>
       </c>
       <c r="K73" cm="1">
-        <f t="array" ref="K73">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A73)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="10">
-        <v>1</v>
-      </c>
-      <c r="M73" s="10">
+        <f t="array" ref="K73">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A73)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" t="s">
+      <c r="O73" cm="1">
+        <f t="array" ref="O73">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A73)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B74">
@@ -10556,7 +10888,7 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
@@ -10566,21 +10898,25 @@
         <v>0</v>
       </c>
       <c r="K74" cm="1">
-        <f t="array" ref="K74">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A74)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="L74" s="10">
-        <v>0</v>
-      </c>
-      <c r="M74" s="10">
+        <f t="array" ref="K74">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A74)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" t="s">
+      <c r="O74" cm="1">
+        <f t="array" ref="O74">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A74)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B75">
@@ -10602,7 +10938,7 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
@@ -10611,22 +10947,25 @@
       <c r="J75">
         <v>0</v>
       </c>
-      <c r="K75" cm="1">
-        <f t="array" ref="K75">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A75)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="10">
-        <v>1</v>
-      </c>
-      <c r="M75" s="10">
+      <c r="K75" s="8">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" t="s">
+      <c r="O75" cm="1">
+        <f t="array" ref="O75">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A75)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B76">
@@ -10648,7 +10987,7 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
@@ -10658,21 +10997,25 @@
         <v>2</v>
       </c>
       <c r="K76" cm="1">
-        <f t="array" ref="K76">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A76)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="L76" s="10">
-        <v>1</v>
-      </c>
-      <c r="M76" s="10">
+        <f t="array" ref="K76">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A76)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" t="s">
+      <c r="O76" cm="1">
+        <f t="array" ref="O76">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A76)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B77">
@@ -10694,7 +11037,7 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
@@ -10704,21 +11047,25 @@
         <v>4</v>
       </c>
       <c r="K77" cm="1">
-        <f t="array" ref="K77">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A77)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="L77" s="10">
-        <v>0</v>
-      </c>
-      <c r="M77" s="10">
+        <f t="array" ref="K77">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A77)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" t="s">
+      <c r="O77" cm="1">
+        <f t="array" ref="O77">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A77)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="18" t="s">
         <v>117</v>
       </c>
       <c r="B78">
@@ -10740,7 +11087,7 @@
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
@@ -10749,22 +11096,25 @@
       <c r="J78">
         <v>0</v>
       </c>
-      <c r="K78" cm="1">
-        <f t="array" ref="K78">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A78)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L78" s="10">
-        <v>1</v>
-      </c>
-      <c r="M78" s="10">
+      <c r="K78" s="8">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" t="s">
+      <c r="O78" cm="1">
+        <f t="array" ref="O78">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A78)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="18" t="s">
         <v>118</v>
       </c>
       <c r="B79">
@@ -10786,7 +11136,7 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
@@ -10796,21 +11146,25 @@
         <v>3</v>
       </c>
       <c r="K79" cm="1">
-        <f t="array" ref="K79">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A79)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="L79" s="10">
-        <v>0</v>
-      </c>
-      <c r="M79" s="10">
+        <f t="array" ref="K79">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A79)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" t="s">
+      <c r="O79" cm="1">
+        <f t="array" ref="O79">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A79)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="18" t="s">
         <v>119</v>
       </c>
       <c r="B80">
@@ -10832,7 +11186,7 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
@@ -10842,21 +11196,25 @@
         <v>3</v>
       </c>
       <c r="K80" cm="1">
-        <f t="array" ref="K80">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A80)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L80" s="10">
-        <v>1</v>
-      </c>
-      <c r="M80" s="10">
+        <f t="array" ref="K80">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A80)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
         <v>1</v>
       </c>
       <c r="N80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" t="s">
+      <c r="O80" cm="1">
+        <f t="array" ref="O80">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A80)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B81">
@@ -10878,7 +11236,7 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
@@ -10887,22 +11245,25 @@
       <c r="J81">
         <v>1</v>
       </c>
-      <c r="K81" cm="1">
-        <f t="array" ref="K81">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A81)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L81" s="10">
-        <v>1</v>
-      </c>
-      <c r="M81" s="10">
+      <c r="K81" s="8">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" t="s">
+      <c r="O81" cm="1">
+        <f t="array" ref="O81">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A81)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="18" t="s">
         <v>121</v>
       </c>
       <c r="B82">
@@ -10924,7 +11285,7 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
@@ -10934,22 +11295,26 @@
         <v>3</v>
       </c>
       <c r="K82" cm="1">
-        <f t="array" ref="K82">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A82)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L82" s="10">
-        <v>1</v>
-      </c>
-      <c r="M82" s="10">
+        <f t="array" ref="K82">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A82)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" t="s">
-        <v>40</v>
+      <c r="O82" cm="1">
+        <f t="array" ref="O82">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A82)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -10970,7 +11335,7 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
@@ -10980,22 +11345,26 @@
         <v>1</v>
       </c>
       <c r="K83" cm="1">
-        <f t="array" ref="K83">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A83)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="L83" s="10">
-        <v>1</v>
-      </c>
-      <c r="M83" s="10">
-        <v>1</v>
+        <f t="array" ref="K83">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A83)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" t="s">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="O83" cm="1">
+        <f t="array" ref="O83">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A83)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -11016,32 +11385,36 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84" s="9">
+      <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K84" cm="1">
-        <f t="array" ref="K84">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A84)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L84" s="10">
-        <v>0</v>
-      </c>
-      <c r="M84" s="10">
+        <f t="array" ref="K84">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A84)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
         <v>0</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" t="s">
-        <v>51</v>
+      <c r="O84" cm="1">
+        <f t="array" ref="O84">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A84)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -11062,32 +11435,36 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="J85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K85" cm="1">
-        <f t="array" ref="K85">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A85)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L85" s="10">
-        <v>0</v>
-      </c>
-      <c r="M85" s="10">
+        <f t="array" ref="K85">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A85)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" t="s">
-        <v>123</v>
+      <c r="O85" cm="1">
+        <f t="array" ref="O85">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A85)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -11108,72 +11485,471 @@
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86" s="9">
+      <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
+        <v>2013</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86" cm="1">
+        <f t="array" ref="K86">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$8,A86)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" cm="1">
+        <f t="array" ref="O86">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A86)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ref="D87:D95" si="2">C87+B87</f>
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>2016</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" cm="1">
+        <f t="array" ref="O87">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A87)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>2015</v>
       </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86" cm="1">
-        <f t="array" ref="K86">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A86)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="L86" s="10">
-        <v>0</v>
-      </c>
-      <c r="M86" s="10">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" t="s">
-        <v>124</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87" s="9">
-        <v>0</v>
-      </c>
-      <c r="I87">
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" cm="1">
+        <f t="array" ref="O88">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A88)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <v>2013</v>
       </c>
-      <c r="J87">
+      <c r="J89">
         <v>3</v>
       </c>
-      <c r="K87" cm="1">
-        <f t="array" ref="K87">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$7,A87)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="L87" s="10">
-        <v>0</v>
-      </c>
-      <c r="M87" s="10">
-        <v>0</v>
-      </c>
-      <c r="N87">
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" cm="1">
+        <f t="array" ref="O89">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A89)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>2012</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90" cm="1">
+        <f t="array" ref="O90">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A90)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>2013</v>
+      </c>
+      <c r="J91">
+        <v>3</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" cm="1">
+        <f t="array" ref="O91">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A91)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>2015</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" s="8">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" cm="1">
+        <f t="array" ref="O92">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A92)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>2015</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" cm="1">
+        <f t="array" ref="O93">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A93)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>2013</v>
+      </c>
+      <c r="J94">
+        <v>3</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" cm="1">
+        <f t="array" ref="O94">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A94)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>2013</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" cm="1">
+        <f t="array" ref="O95">IF(SUMPRODUCT(--ISNUMBER(SEARCH($Q$2:$Q$5,A95)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11186,8 +11962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7DE86D-3014-472F-9750-DA9390DE424D}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11215,37 +11991,37 @@
       <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
       <c r="H1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:8" s="19" customFormat="1">
+      <c r="A2" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
         <f>E2-C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19">
         <v>2004</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="19">
         <f>2016-'Mapping article title to (NOAA)'!F2</f>
         <v>12</v>
       </c>
@@ -11321,51 +12097,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="15" customFormat="1">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:8" s="19" customFormat="1">
+      <c r="A6" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
         <f>E6-C6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
         <v>2007</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="15" customFormat="1">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:8" s="19" customFormat="1">
+      <c r="A7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
         <f>E7-C7</f>
         <v>3</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="19">
         <v>4</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="19">
         <v>2016</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="19">
         <v>0</v>
       </c>
     </row>
@@ -11442,75 +12218,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="15" customFormat="1">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:8" s="19" customFormat="1">
+      <c r="A11" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
         <f>E11-C11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
         <v>2016</v>
       </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="15" customFormat="1">
-      <c r="A12" s="16" t="s">
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="19" customFormat="1">
+      <c r="A12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19">
         <f>E12-C12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
         <v>2012</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="15" customFormat="1">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:8" s="19" customFormat="1">
+      <c r="A13" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="15">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
         <f>E13-C13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
         <v>2011</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="19">
         <v>5</v>
       </c>
     </row>
@@ -11709,27 +12485,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="17" customFormat="1">
-      <c r="A22" s="17">
+    <row r="22" spans="1:7" s="15" customFormat="1">
+      <c r="A22" s="15">
         <v>6</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="17">
-        <v>0</v>
-      </c>
-      <c r="D22" s="17">
+      <c r="C22" s="15">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15">
         <f>E22-C22</f>
         <v>1</v>
       </c>
-      <c r="E22" s="17">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17">
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15">
         <v>2005</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F22</f>
         <v>11</v>
       </c>
@@ -11744,7 +12520,7 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <f>E23-C23</f>
         <v>3</v>
       </c>
@@ -11784,26 +12560,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="17" customFormat="1">
-      <c r="A25" s="17">
+    <row r="25" spans="1:7" s="15" customFormat="1">
+      <c r="A25" s="15">
         <v>9</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17">
-        <v>1</v>
-      </c>
-      <c r="E25" s="17">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17">
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15">
         <v>1999</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F25</f>
         <v>17</v>
       </c>
@@ -11833,102 +12609,102 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="17" customFormat="1">
-      <c r="A27" s="17">
+    <row r="27" spans="1:7" s="15" customFormat="1">
+      <c r="A27" s="15">
         <v>11</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17">
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
         <f>E27-C27</f>
         <v>1</v>
       </c>
-      <c r="E27" s="17">
-        <v>1</v>
-      </c>
-      <c r="F27" s="17">
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15">
         <v>2013</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F27</f>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="17" customFormat="1">
-      <c r="A28" s="17">
+    <row r="28" spans="1:7" s="15" customFormat="1">
+      <c r="A28" s="15">
         <v>12</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="17">
-        <v>0</v>
-      </c>
-      <c r="D28" s="17">
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15">
         <f>E28-C28</f>
         <v>1</v>
       </c>
-      <c r="E28" s="17">
-        <v>1</v>
-      </c>
-      <c r="F28" s="17">
+      <c r="E28" s="15">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15">
         <v>2007</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F28</f>
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="17" customFormat="1">
-      <c r="A29" s="17">
+    <row r="29" spans="1:7" s="15" customFormat="1">
+      <c r="A29" s="15">
         <v>13</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="17">
-        <v>0</v>
-      </c>
-      <c r="D29" s="17">
+      <c r="C29" s="15">
+        <v>0</v>
+      </c>
+      <c r="D29" s="15">
         <f>E29-C29</f>
         <v>1</v>
       </c>
-      <c r="E29" s="17">
-        <v>1</v>
-      </c>
-      <c r="F29" s="17">
+      <c r="E29" s="15">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15">
         <v>2009</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F29</f>
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="17" customFormat="1">
-      <c r="A30" s="17">
+    <row r="30" spans="1:7" s="15" customFormat="1">
+      <c r="A30" s="15">
         <v>14</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="C30" s="15">
+        <v>0</v>
+      </c>
+      <c r="D30" s="15">
         <f>E30-C30</f>
         <v>1</v>
       </c>
-      <c r="E30" s="17">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17">
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15">
         <v>1994</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F30</f>
         <v>22</v>
       </c>
@@ -11957,27 +12733,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="17" customFormat="1">
-      <c r="A32" s="17">
+    <row r="32" spans="1:7" s="15" customFormat="1">
+      <c r="A32" s="15">
         <v>16</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="17">
-        <v>0</v>
-      </c>
-      <c r="D32" s="17">
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
+      <c r="D32" s="15">
         <f>E32-C32</f>
         <v>1</v>
       </c>
-      <c r="E32" s="17">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17">
+      <c r="E32" s="15">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15">
         <v>2005</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F32</f>
         <v>11</v>
       </c>
@@ -12007,52 +12783,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="17" customFormat="1">
-      <c r="A34" s="17">
+    <row r="34" spans="1:7" s="15" customFormat="1">
+      <c r="A34" s="15">
         <v>18</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="17">
-        <v>0</v>
-      </c>
-      <c r="D34" s="17">
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
         <f>E34-C34</f>
         <v>1</v>
       </c>
-      <c r="E34" s="17">
-        <v>1</v>
-      </c>
-      <c r="F34" s="17">
+      <c r="E34" s="15">
+        <v>1</v>
+      </c>
+      <c r="F34" s="15">
         <v>2012</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F34</f>
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="17" customFormat="1">
-      <c r="A35" s="17">
+    <row r="35" spans="1:7" s="15" customFormat="1">
+      <c r="A35" s="15">
         <v>19</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0</v>
-      </c>
-      <c r="D35" s="17">
+      <c r="B35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0</v>
+      </c>
+      <c r="D35" s="15">
         <f>E35-C35</f>
         <v>1</v>
       </c>
-      <c r="E35" s="17">
-        <v>1</v>
-      </c>
-      <c r="F35" s="17">
+      <c r="E35" s="15">
+        <v>1</v>
+      </c>
+      <c r="F35" s="15">
         <v>2003</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F35</f>
         <v>13</v>
       </c>
@@ -12130,27 +12906,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="17" customFormat="1">
-      <c r="A39" s="17">
+    <row r="39" spans="1:7" s="15" customFormat="1">
+      <c r="A39" s="15">
         <v>23</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="17">
-        <v>0</v>
-      </c>
-      <c r="D39" s="17">
+      <c r="C39" s="15">
+        <v>0</v>
+      </c>
+      <c r="D39" s="15">
         <f>E39-C39</f>
         <v>1</v>
       </c>
-      <c r="E39" s="17">
-        <v>1</v>
-      </c>
-      <c r="F39" s="17">
+      <c r="E39" s="15">
+        <v>1</v>
+      </c>
+      <c r="F39" s="15">
         <v>2003</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F39</f>
         <v>13</v>
       </c>
@@ -12253,27 +13029,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="17" customFormat="1">
-      <c r="A44" s="17">
+    <row r="44" spans="1:7" s="15" customFormat="1">
+      <c r="A44" s="15">
         <v>28</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="17">
-        <v>0</v>
-      </c>
-      <c r="D44" s="17">
+      <c r="C44" s="15">
+        <v>0</v>
+      </c>
+      <c r="D44" s="15">
         <f>E44-C44</f>
         <v>1</v>
       </c>
-      <c r="E44" s="17">
-        <v>1</v>
-      </c>
-      <c r="F44" s="17">
+      <c r="E44" s="15">
+        <v>1</v>
+      </c>
+      <c r="F44" s="15">
         <v>2009</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F44</f>
         <v>7</v>
       </c>
@@ -12328,27 +13104,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="17" customFormat="1">
-      <c r="A47" s="17">
+    <row r="47" spans="1:7" s="15" customFormat="1">
+      <c r="A47" s="15">
         <v>31</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="17">
-        <v>0</v>
-      </c>
-      <c r="D47" s="17">
+      <c r="C47" s="15">
+        <v>0</v>
+      </c>
+      <c r="D47" s="15">
         <f>E47-C47</f>
         <v>1</v>
       </c>
-      <c r="E47" s="17">
-        <v>1</v>
-      </c>
-      <c r="F47" s="17">
+      <c r="E47" s="15">
+        <v>1</v>
+      </c>
+      <c r="F47" s="15">
         <v>2000</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F47</f>
         <v>16</v>
       </c>
@@ -12377,27 +13153,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="17" customFormat="1">
-      <c r="A49" s="17">
+    <row r="49" spans="1:7" s="15" customFormat="1">
+      <c r="A49" s="15">
         <v>33</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="17">
-        <v>0</v>
-      </c>
-      <c r="D49" s="17">
+      <c r="C49" s="15">
+        <v>0</v>
+      </c>
+      <c r="D49" s="15">
         <f t="shared" ref="D49:D54" si="0">E49-C49</f>
         <v>1</v>
       </c>
-      <c r="E49" s="17">
-        <v>1</v>
-      </c>
-      <c r="F49" s="17">
+      <c r="E49" s="15">
+        <v>1</v>
+      </c>
+      <c r="F49" s="15">
         <v>2010</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F49</f>
         <v>6</v>
       </c>
@@ -12445,11 +13221,11 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="G51">
         <f>2016-'Mapping article title to (NOAA)'!F51</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12477,27 +13253,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="17" customFormat="1">
-      <c r="A53" s="17">
+    <row r="53" spans="1:7" s="15" customFormat="1">
+      <c r="A53" s="15">
         <v>37</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="17">
-        <v>0</v>
-      </c>
-      <c r="D53" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E53" s="17">
-        <v>1</v>
-      </c>
-      <c r="F53" s="17">
+      <c r="C53" s="15">
+        <v>0</v>
+      </c>
+      <c r="D53" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="15">
+        <v>1</v>
+      </c>
+      <c r="F53" s="15">
         <v>2011</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F53</f>
         <v>5</v>
       </c>
@@ -12586,7 +13362,7 @@
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="15">
         <v>2</v>
       </c>
       <c r="E57">
@@ -12625,27 +13401,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="17" customFormat="1">
-      <c r="A59" s="17">
+    <row r="59" spans="1:7" s="15" customFormat="1">
+      <c r="A59" s="15">
         <v>43</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="17">
-        <v>0</v>
-      </c>
-      <c r="D59" s="17">
+      <c r="C59" s="15">
+        <v>0</v>
+      </c>
+      <c r="D59" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E59" s="17">
-        <v>1</v>
-      </c>
-      <c r="F59" s="17">
+      <c r="E59" s="15">
+        <v>1</v>
+      </c>
+      <c r="F59" s="15">
         <v>1999</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="15">
         <f>2016-'Mapping article title to (NOAA)'!F59</f>
         <v>17</v>
       </c>
@@ -12790,12 +13566,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0487A897-C82B-490B-A37A-21C6F2320AF7}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2:M49"/>
+      <selection pane="topRight" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12805,7 +13581,7 @@
     <col min="4" max="8" width="6.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -12843,10 +13619,13 @@
         <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -12873,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="I2" cm="1">
-        <f t="array" ref="I2">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A2)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I2">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A2)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J2">
@@ -12885,14 +13664,21 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" cm="1">
+        <f t="array" ref="M2">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A2)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -12919,7 +13705,7 @@
         <v>1</v>
       </c>
       <c r="I3" cm="1">
-        <f t="array" ref="I3">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A3)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I3">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A3)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J3">
@@ -12931,14 +13717,21 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="M3" cm="1">
+        <f t="array" ref="M3">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A3)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>3</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -12965,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="I4" cm="1">
-        <f t="array" ref="I4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A4)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A4)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J4">
@@ -12977,14 +13770,21 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="M4" cm="1">
+        <f t="array" ref="M4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A4)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="P4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13011,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="I5" cm="1">
-        <f t="array" ref="I5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A5)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A5)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J5">
@@ -13023,14 +13823,21 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="M5" cm="1">
+        <f t="array" ref="M5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A5)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -13057,7 +13864,7 @@
         <v>1</v>
       </c>
       <c r="I6" cm="1">
-        <f t="array" ref="I6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A6)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A6)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J6">
@@ -13069,14 +13876,18 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" cm="1">
+        <f t="array" ref="M6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A6)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -13103,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="I7" cm="1">
-        <f t="array" ref="I7">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A7)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I7">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A7)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J7">
@@ -13115,14 +13926,17 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -13149,7 +13963,7 @@
         <v>1</v>
       </c>
       <c r="I8" cm="1">
-        <f t="array" ref="I8">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A8)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I8">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A8)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J8">
@@ -13161,11 +13975,18 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" cm="1">
+        <f t="array" ref="M8">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A8)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -13192,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="I9" cm="1">
-        <f t="array" ref="I9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A9)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A9)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J9">
@@ -13204,11 +14025,15 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A9)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -13235,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="I10" cm="1">
-        <f t="array" ref="I10">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A10)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I10">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A10)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J10">
@@ -13247,12 +14072,15 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="14">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <f>H10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -13279,7 +14107,7 @@
         <v>1</v>
       </c>
       <c r="I11" cm="1">
-        <f t="array" ref="I11">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A11)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I11">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A11)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J11">
@@ -13291,11 +14119,15 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A11)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -13322,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="I12" cm="1">
-        <f t="array" ref="I12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A12)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A12)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J12">
@@ -13334,12 +14166,16 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <f t="shared" ref="M12:M44" si="1">H12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A12)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>H12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -13366,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="I13" cm="1">
-        <f t="array" ref="I13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A13)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A13)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J13">
@@ -13378,12 +14214,16 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A13)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>H13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -13409,9 +14249,8 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" cm="1">
-        <f t="array" ref="I14">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A14)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I14" s="16">
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -13422,12 +14261,16 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A14)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -13454,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="I15" cm="1">
-        <f t="array" ref="I15">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A15)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I15">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A15)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J15">
@@ -13466,12 +14309,15 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="14">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f>H15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -13498,7 +14344,7 @@
         <v>1</v>
       </c>
       <c r="I16" cm="1">
-        <f t="array" ref="I16">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A16)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I16">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A16)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J16">
@@ -13510,11 +14356,15 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A16)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -13541,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="I17" cm="1">
-        <f t="array" ref="I17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A17)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A17)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J17">
@@ -13553,12 +14403,16 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" cm="1">
+        <f t="array" ref="M17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A17)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f>H17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -13585,7 +14439,7 @@
         <v>1</v>
       </c>
       <c r="I18" cm="1">
-        <f t="array" ref="I18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A18)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A18)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J18">
@@ -13597,11 +14451,15 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18" cm="1">
+        <f t="array" ref="M18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A18)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -13628,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="I19" cm="1">
-        <f t="array" ref="I19">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A19)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I19">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A19)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J19">
@@ -13640,12 +14498,16 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="M19" cm="1">
+        <f t="array" ref="M19">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A19)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -13672,7 +14534,7 @@
         <v>0</v>
       </c>
       <c r="I20" cm="1">
-        <f t="array" ref="I20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A20)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A20)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J20">
@@ -13684,12 +14546,16 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20" cm="1">
+        <f t="array" ref="M20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A20)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f>H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -13716,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="I21" cm="1">
-        <f t="array" ref="I21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A21)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A21)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J21">
@@ -13728,11 +14594,15 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="M21">
+      <c r="M21" cm="1">
+        <f t="array" ref="M21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A21)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -13759,7 +14629,7 @@
         <v>1</v>
       </c>
       <c r="I22" cm="1">
-        <f t="array" ref="I22">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A22)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I22">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A22)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J22">
@@ -13771,11 +14641,15 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22">
+      <c r="M22" cm="1">
+        <f t="array" ref="M22">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A22)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -13802,8 +14676,8 @@
         <v>1</v>
       </c>
       <c r="I23" cm="1">
-        <f t="array" ref="I23">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A23)))&gt;0, 1, 0)</f>
-        <v>0</v>
+        <f t="array" ref="I23">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A23)))&gt;0, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -13814,11 +14688,14 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23" s="14">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -13844,9 +14721,8 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" cm="1">
-        <f t="array" ref="I24">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A24)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I24" s="16">
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -13857,12 +14733,16 @@
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="M24" cm="1">
+        <f t="array" ref="M24">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A24)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>H24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -13889,7 +14769,7 @@
         <v>1</v>
       </c>
       <c r="I25" cm="1">
-        <f t="array" ref="I25">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A25)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I25">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A25)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J25">
@@ -13901,11 +14781,14 @@
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="14">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -13932,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="I26" cm="1">
-        <f t="array" ref="I26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A26)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A26)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J26">
@@ -13944,11 +14827,15 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="M26" cm="1">
+        <f t="array" ref="M26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A26)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -13975,8 +14862,8 @@
         <v>1</v>
       </c>
       <c r="I27" cm="1">
-        <f t="array" ref="I27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A27)))&gt;0, 1, 0)</f>
-        <v>0</v>
+        <f t="array" ref="I27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A27)))&gt;0, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -13987,11 +14874,15 @@
       <c r="L27">
         <v>1</v>
       </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="M27" cm="1">
+        <f t="array" ref="M27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A27)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -14017,9 +14908,8 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" cm="1">
-        <f t="array" ref="I28">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A28)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I28" s="16">
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -14030,11 +14920,14 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="14">
+        <v>1</v>
+      </c>
+      <c r="N28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -14060,9 +14953,8 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" cm="1">
-        <f t="array" ref="I29">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A29)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I29" s="16">
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -14073,12 +14965,16 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="M29" cm="1">
+        <f t="array" ref="M29">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A29)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>H29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -14104,9 +15000,8 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" cm="1">
-        <f t="array" ref="I30">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A30)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I30" s="16">
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -14117,11 +15012,15 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="M30" cm="1">
+        <f t="array" ref="M30">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A30)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -14148,7 +15047,7 @@
         <v>1</v>
       </c>
       <c r="I31" cm="1">
-        <f t="array" ref="I31">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A31)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I31">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A31)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J31">
@@ -14160,11 +15059,15 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="M31" cm="1">
+        <f t="array" ref="M31">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A31)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -14191,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="I32" cm="1">
-        <f t="array" ref="I32">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A32)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I32">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A32)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J32">
@@ -14203,8 +15106,12 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="1"/>
+      <c r="M32" cm="1">
+        <f t="array" ref="M32">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A32)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>H32</f>
         <v>0</v>
       </c>
     </row>
@@ -14235,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="I33" cm="1">
-        <f t="array" ref="I33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A33)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A33)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J33">
@@ -14247,7 +15154,11 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
+      <c r="M33" cm="1">
+        <f t="array" ref="M33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A33)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N33">
         <v>1</v>
       </c>
     </row>
@@ -14277,9 +15188,8 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" cm="1">
-        <f t="array" ref="I34">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A34)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I34" s="16">
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -14290,8 +15200,12 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="1"/>
+      <c r="M34" cm="1">
+        <f t="array" ref="M34">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A34)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>H34</f>
         <v>0</v>
       </c>
     </row>
@@ -14322,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="I35" cm="1">
-        <f t="array" ref="I35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A35)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A35)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J35">
@@ -14334,7 +15248,11 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35">
+      <c r="M35" cm="1">
+        <f t="array" ref="M35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A35)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
         <v>1</v>
       </c>
     </row>
@@ -14365,7 +15283,7 @@
         <v>1</v>
       </c>
       <c r="I36" cm="1">
-        <f t="array" ref="I36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A36)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A36)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J36">
@@ -14377,7 +15295,11 @@
       <c r="L36">
         <v>1</v>
       </c>
-      <c r="M36">
+      <c r="M36" cm="1">
+        <f t="array" ref="M36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A36)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>1</v>
       </c>
     </row>
@@ -14408,7 +15330,7 @@
         <v>1</v>
       </c>
       <c r="I37" cm="1">
-        <f t="array" ref="I37">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A37)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I37">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A37)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J37">
@@ -14420,7 +15342,10 @@
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="14">
+        <v>0</v>
+      </c>
+      <c r="N37">
         <v>1</v>
       </c>
     </row>
@@ -14450,9 +15375,8 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" cm="1">
-        <f t="array" ref="I38">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A38)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I38" s="16">
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -14463,12 +15387,13 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="M38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O38" t="s">
-        <v>75</v>
+      <c r="M38" cm="1">
+        <f t="array" ref="M38">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A38)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f>H38</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -14498,7 +15423,7 @@
         <v>1</v>
       </c>
       <c r="I39" cm="1">
-        <f t="array" ref="I39">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A39)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I39">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A39)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="J39">
@@ -14510,7 +15435,10 @@
       <c r="L39">
         <v>1</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="14">
+        <v>1</v>
+      </c>
+      <c r="N39">
         <v>1</v>
       </c>
     </row>
@@ -14540,9 +15468,8 @@
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40" cm="1">
-        <f t="array" ref="I40">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A40)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I40" s="16">
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -14553,7 +15480,10 @@
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="14">
+        <v>1</v>
+      </c>
+      <c r="N40">
         <v>1</v>
       </c>
     </row>
@@ -14584,7 +15514,7 @@
         <v>1</v>
       </c>
       <c r="I41" cm="1">
-        <f t="array" ref="I41">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A41)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I41">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A41)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J41">
@@ -14596,7 +15526,11 @@
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41">
+      <c r="M41" cm="1">
+        <f t="array" ref="M41">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A41)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N41">
         <v>1</v>
       </c>
     </row>
@@ -14626,9 +15560,8 @@
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42" cm="1">
-        <f t="array" ref="I42">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A42)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I42" s="16">
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -14639,7 +15572,10 @@
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="14">
+        <v>1</v>
+      </c>
+      <c r="N42">
         <v>1</v>
       </c>
     </row>
@@ -14669,9 +15605,8 @@
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43" cm="1">
-        <f t="array" ref="I43">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A43)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I43" s="16">
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -14682,7 +15617,11 @@
       <c r="L43">
         <v>1</v>
       </c>
-      <c r="M43">
+      <c r="M43" cm="1">
+        <f t="array" ref="M43">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A43)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N43">
         <v>1</v>
       </c>
     </row>
@@ -14713,8 +15652,8 @@
         <v>0</v>
       </c>
       <c r="I44" cm="1">
-        <f t="array" ref="I44">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A44)))&gt;0, 1, 0)</f>
-        <v>0</v>
+        <f t="array" ref="I44">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A44)))&gt;0, 1, 0)</f>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -14725,11 +15664,15 @@
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="M44" cm="1">
+        <f t="array" ref="M44">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A44)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>H44</f>
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
         <v>76</v>
       </c>
     </row>
@@ -14760,7 +15703,7 @@
         <v>1</v>
       </c>
       <c r="I45" cm="1">
-        <f t="array" ref="I45">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A45)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I45">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A45)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J45">
@@ -14772,7 +15715,11 @@
       <c r="L45">
         <v>1</v>
       </c>
-      <c r="M45">
+      <c r="M45" cm="1">
+        <f t="array" ref="M45">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A45)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
         <v>1</v>
       </c>
     </row>
@@ -14803,7 +15750,7 @@
         <v>1</v>
       </c>
       <c r="I46" cm="1">
-        <f t="array" ref="I46">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A46)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I46">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A46)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J46">
@@ -14815,7 +15762,11 @@
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46">
+      <c r="M46" cm="1">
+        <f t="array" ref="M46">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A46)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N46">
         <v>1</v>
       </c>
     </row>
@@ -14845,9 +15796,8 @@
       <c r="H47">
         <v>1</v>
       </c>
-      <c r="I47" cm="1">
-        <f t="array" ref="I47">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A47)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I47" s="16">
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -14858,7 +15808,10 @@
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="14">
+        <v>1</v>
+      </c>
+      <c r="N47">
         <v>1</v>
       </c>
     </row>
@@ -14888,9 +15841,8 @@
       <c r="H48">
         <v>1</v>
       </c>
-      <c r="I48" cm="1">
-        <f t="array" ref="I48">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A48)))&gt;0, 1, 0)</f>
-        <v>0</v>
+      <c r="I48" s="16">
+        <v>1</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -14901,11 +15853,15 @@
       <c r="L48">
         <v>1</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="M48" cm="1">
+        <f t="array" ref="M48">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A48)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -14932,7 +15888,7 @@
         <v>1</v>
       </c>
       <c r="I49" cm="1">
-        <f t="array" ref="I49">IF(SUMPRODUCT(--ISNUMBER(SEARCH($N$2:$N$7,A49)))&gt;0, 1, 0)</f>
+        <f t="array" ref="I49">IF(SUMPRODUCT(--ISNUMBER(SEARCH($O$2:$O$8,A49)))&gt;0, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J49">
@@ -14944,8 +15900,17 @@
       <c r="L49">
         <v>1</v>
       </c>
-      <c r="M49">
-        <v>1</v>
+      <c r="M49" cm="1">
+        <f t="array" ref="M49">IF(SUMPRODUCT(--ISNUMBER(SEARCH($P$2:$P$5,A49)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="P53" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
